--- a/config/layout/screen0Elements.xlsx
+++ b/config/layout/screen0Elements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Python\FinanceManager\config\layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD9089E-3559-4A33-AF5B-8B9020706150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268526BF-A2EE-4D9C-B964-0BA3528955E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,14 @@
     <sheet name="Buttons" sheetId="1" r:id="rId1"/>
     <sheet name="Labels" sheetId="2" r:id="rId2"/>
     <sheet name="TextBoxes" sheetId="3" r:id="rId3"/>
+    <sheet name="Screen" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -85,6 +86,42 @@
   </si>
   <si>
     <t>tbPassword</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>bgColour</t>
+  </si>
+  <si>
+    <t>#a8984d</t>
+  </si>
+  <si>
+    <t>rowStart</t>
+  </si>
+  <si>
+    <t>rowEnd</t>
+  </si>
+  <si>
+    <t>columnStart</t>
+  </si>
+  <si>
+    <t>columnEnd</t>
+  </si>
+  <si>
+    <t>grid</t>
   </si>
 </sst>
 </file>
@@ -446,21 +483,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="14.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,14 +508,26 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -487,14 +537,26 @@
       <c r="C2" s="2">
         <v>350</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2">
+      <c r="I2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -504,10 +566,22 @@
       <c r="C3" s="1">
         <v>350</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
+      <c r="I3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -518,15 +592,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150871EB-4912-4180-B17C-83A3764DC5B5}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,14 +610,26 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -553,14 +639,26 @@
       <c r="C2" s="2">
         <v>200</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2">
+      <c r="I2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -570,14 +668,26 @@
       <c r="C3" s="1">
         <v>250</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
+      <c r="I3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -587,10 +697,22 @@
       <c r="C4">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>2</v>
       </c>
     </row>
@@ -601,20 +723,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE39240A-12A4-4004-804D-1FFC1D0724A4}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,17 +746,29 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -644,17 +778,29 @@
       <c r="C2" s="2">
         <v>200</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="I2">
         <v>100</v>
       </c>
-      <c r="F2" s="2">
+      <c r="J2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -664,17 +810,85 @@
       <c r="C3" s="1">
         <v>250</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3">
         <v>30</v>
       </c>
-      <c r="E3">
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="F3" s="1">
+      <c r="J3" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5B2183-A331-41A9-92A3-46E53C7CE8C4}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/config/layout/screen0Elements.xlsx
+++ b/config/layout/screen0Elements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Python\FinanceManager\config\layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268526BF-A2EE-4D9C-B964-0BA3528955E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAFE8B2-2371-4A1D-B692-E7BB633CE0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>grid</t>
+  </si>
+  <si>
+    <t>placement</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -483,22 +492,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,14 +529,17 @@
       <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -544,19 +556,20 @@
         <v>4</v>
       </c>
       <c r="F2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -573,15 +586,15 @@
         <v>4</v>
       </c>
       <c r="F3" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -592,15 +605,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150871EB-4912-4180-B17C-83A3764DC5B5}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,14 +635,17 @@
       <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -646,19 +662,22 @@
         <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -675,19 +694,22 @@
         <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -704,15 +726,15 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2</v>
       </c>
     </row>
@@ -723,20 +745,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE39240A-12A4-4004-804D-1FFC1D0724A4}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,17 +780,20 @@
       <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -785,22 +810,25 @@
         <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2">
-        <v>4</v>
-      </c>
-      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2">
         <v>30</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>100</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -817,18 +845,21 @@
         <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1">
-        <v>4</v>
-      </c>
-      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3">
         <v>30</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -842,7 +873,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,7 +899,7 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -876,7 +907,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">

--- a/config/layout/screen0Elements.xlsx
+++ b/config/layout/screen0Elements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Python\FinanceManager\config\layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAFE8B2-2371-4A1D-B692-E7BB633CE0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CCBE7D-B9B0-40CA-B032-8236DF7EA9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>Password :</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>width</t>
   </si>
   <si>
     <t>textBoxType</t>
@@ -518,19 +512,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -541,7 +535,7 @@
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>480</v>
@@ -563,7 +557,7 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -571,7 +565,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>580</v>
@@ -592,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -624,19 +618,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -647,7 +641,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2">
         <v>480</v>
@@ -668,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -679,7 +673,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>470</v>
@@ -700,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
@@ -711,7 +705,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -732,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -745,20 +739,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE39240A-12A4-4004-804D-1FFC1D0724A4}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -769,33 +762,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>550</v>
@@ -816,21 +803,15 @@
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2">
-        <v>30</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2" s="2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>550</v>
@@ -851,15 +832,9 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3" s="1">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -880,23 +855,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -904,7 +879,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -912,10 +887,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/config/layout/screen0Elements.xlsx
+++ b/config/layout/screen0Elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Python\FinanceManager\config\layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CCBE7D-B9B0-40CA-B032-8236DF7EA9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1C1B88-D99D-4F0F-903F-67A471BA42AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buttons" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -61,27 +61,6 @@
     <t>Welcome to Personal Finance Manager</t>
   </si>
   <si>
-    <t>tbUserId</t>
-  </si>
-  <si>
-    <t>lbUserId</t>
-  </si>
-  <si>
-    <t>lbPassword</t>
-  </si>
-  <si>
-    <t>lbWelcome</t>
-  </si>
-  <si>
-    <t>btLogin</t>
-  </si>
-  <si>
-    <t>btSignUp</t>
-  </si>
-  <si>
-    <t>tbPassword</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -125,6 +104,33 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>tbUserId0</t>
+  </si>
+  <si>
+    <t>tbPassword0</t>
+  </si>
+  <si>
+    <t>btLogin0</t>
+  </si>
+  <si>
+    <t>btSignUp0</t>
+  </si>
+  <si>
+    <t>lbUserId0</t>
+  </si>
+  <si>
+    <t>lbPassword0</t>
+  </si>
+  <si>
+    <t>lbWelcome0</t>
+  </si>
+  <si>
+    <t>Scrollbar</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -489,7 +495,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,19 +518,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -535,7 +541,7 @@
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2">
         <v>480</v>
@@ -565,7 +571,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>580</v>
@@ -602,7 +608,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,19 +624,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -641,7 +647,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2">
         <v>480</v>
@@ -662,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -673,7 +679,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>470</v>
@@ -694,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
@@ -705,7 +711,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -741,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE39240A-12A4-4004-804D-1FFC1D0724A4}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -762,19 +768,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -782,7 +788,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2">
         <v>550</v>
@@ -803,7 +809,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -811,7 +817,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>550</v>
@@ -832,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -845,33 +851,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5B2183-A331-41A9-92A3-46E53C7CE8C4}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -879,7 +885,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -887,10 +893,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/config/layout/screen0Elements.xlsx
+++ b/config/layout/screen0Elements.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Python\FinanceManager\config\layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1C1B88-D99D-4F0F-903F-67A471BA42AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77F0B9F-EC6A-4D5C-9342-6CABECBBA373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buttons" sheetId="1" r:id="rId1"/>
     <sheet name="Labels" sheetId="2" r:id="rId2"/>
     <sheet name="TextBoxes" sheetId="3" r:id="rId3"/>
     <sheet name="Screen" sheetId="4" r:id="rId4"/>
+    <sheet name="Structures" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -58,9 +59,6 @@
     <t>Sign Up</t>
   </si>
   <si>
-    <t>Welcome to Personal Finance Manager</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -94,18 +92,9 @@
     <t>columnEnd</t>
   </si>
   <si>
-    <t>grid</t>
-  </si>
-  <si>
     <t>placement</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>tbUserId0</t>
   </si>
   <si>
@@ -131,6 +120,42 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>Welcome To Personal Finance Manager</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>LTP</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>structureId</t>
+  </si>
+  <si>
+    <t>structureType</t>
+  </si>
+  <si>
+    <t>structureStartX</t>
+  </si>
+  <si>
+    <t>structureEndX</t>
+  </si>
+  <si>
+    <t>structureStartY</t>
+  </si>
+  <si>
+    <t>structureEndY</t>
   </si>
 </sst>
 </file>
@@ -492,10 +517,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -505,9 +530,10 @@
     <col min="4" max="8" width="14.1796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,19 +544,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -538,13 +564,16 @@
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="C2" s="2">
         <v>350</v>
@@ -561,20 +590,25 @@
       <c r="G2" s="2">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I2" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="C3" s="1">
         <v>350</v>
@@ -591,11 +625,17 @@
       <c r="G3" s="1">
         <v>7</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I3" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -605,15 +645,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150871EB-4912-4180-B17C-83A3764DC5B5}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,19 +667,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -644,13 +687,16 @@
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="C2" s="2">
         <v>200</v>
@@ -668,21 +714,24 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="2">
+        <v>4</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="C3" s="1">
         <v>250</v>
@@ -699,22 +748,25 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -731,11 +783,17 @@
       <c r="G4">
         <v>10</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J4">
         <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -745,10 +803,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE39240A-12A4-4004-804D-1FFC1D0724A4}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -757,7 +815,7 @@
     <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -768,30 +826,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="C2" s="2">
         <v>200</v>
@@ -809,18 +870,21 @@
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="C3" s="1">
         <v>250</v>
@@ -837,11 +901,14 @@
       <c r="G3" s="1">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -853,31 +920,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5B2183-A331-41A9-92A3-46E53C7CE8C4}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -885,7 +952,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -893,22 +960,137 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6A1FA0-8C76-4D09-9110-53579C1935E5}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>